--- a/data/processed/Excels/X_test_sel_k5.xlsx
+++ b/data/processed/Excels/X_test_sel_k5.xlsx
@@ -978,7 +978,7 @@
         <v>162</v>
       </c>
       <c r="C32" t="n">
-        <v>53.2</v>
+        <v>50.55</v>
       </c>
       <c r="D32" t="n">
         <v>0.759</v>
@@ -1001,7 +1001,7 @@
         <v>0.52</v>
       </c>
       <c r="E33" t="n">
-        <v>67</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="34">
@@ -1253,7 +1253,7 @@
         <v>37.1</v>
       </c>
       <c r="D48" t="n">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="E48" t="n">
         <v>56</v>
@@ -1437,7 +1437,7 @@
         <v>80</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="D59" t="n">
         <v>0.174</v>
@@ -2032,7 +2032,7 @@
         <v>74</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="D94" t="n">
         <v>0.102</v>
@@ -2307,7 +2307,7 @@
         <v>34.2</v>
       </c>
       <c r="D110" t="n">
-        <v>1.292</v>
+        <v>1.2</v>
       </c>
       <c r="E110" t="n">
         <v>27</v>
@@ -2372,7 +2372,7 @@
         <v>105</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="D114" t="n">
         <v>0.305</v>
@@ -2562,7 +2562,7 @@
         <v>25.1</v>
       </c>
       <c r="D125" t="n">
-        <v>1.268</v>
+        <v>1.2</v>
       </c>
       <c r="E125" t="n">
         <v>25</v>
@@ -2610,7 +2610,7 @@
         <v>115</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="D128" t="n">
         <v>0.261</v>
@@ -2630,7 +2630,7 @@
         <v>33.3</v>
       </c>
       <c r="D129" t="n">
-        <v>1.353</v>
+        <v>1.2</v>
       </c>
       <c r="E129" t="n">
         <v>51</v>
@@ -2644,7 +2644,7 @@
         <v>135</v>
       </c>
       <c r="C130" t="n">
-        <v>52.3</v>
+        <v>50.55</v>
       </c>
       <c r="D130" t="n">
         <v>0.578</v>
@@ -2749,7 +2749,7 @@
         <v>40</v>
       </c>
       <c r="D136" t="n">
-        <v>1.258</v>
+        <v>1.2</v>
       </c>
       <c r="E136" t="n">
         <v>22</v>
@@ -2953,7 +2953,7 @@
         <v>29</v>
       </c>
       <c r="D148" t="n">
-        <v>1.224</v>
+        <v>1.2</v>
       </c>
       <c r="E148" t="n">
         <v>32</v>
@@ -3021,7 +3021,7 @@
         <v>33.3</v>
       </c>
       <c r="D152" t="n">
-        <v>1.251</v>
+        <v>1.2</v>
       </c>
       <c r="E152" t="n">
         <v>24</v>
